--- a/Code/Results/Cases/Case_1_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_129/res_line/loading_percent.xlsx
@@ -421,16 +421,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.349720135345215</v>
+        <v>2.888251324518907</v>
       </c>
       <c r="E2">
-        <v>31.35800337974202</v>
+        <v>16.71456242210409</v>
       </c>
       <c r="F2">
-        <v>33.21936882378015</v>
+        <v>22.91516405752202</v>
       </c>
       <c r="G2">
-        <v>1.972485176699698</v>
+        <v>3.554465621914876</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>26.43978069555537</v>
+        <v>19.41803292077184</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,16 +447,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.252862348009561</v>
+        <v>2.868465467081504</v>
       </c>
       <c r="E3">
-        <v>28.97648187263922</v>
+        <v>15.74734985263153</v>
       </c>
       <c r="F3">
-        <v>30.78999478642792</v>
+        <v>22.18566614097683</v>
       </c>
       <c r="G3">
-        <v>1.982984461186739</v>
+        <v>3.558084161067147</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>24.48849958122702</v>
+        <v>18.9225144024005</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,16 +473,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.193806291917494</v>
+        <v>2.856048993626708</v>
       </c>
       <c r="E4">
-        <v>27.45768493464443</v>
+        <v>15.12794543687679</v>
       </c>
       <c r="F4">
-        <v>29.23296184086118</v>
+        <v>21.73354054194758</v>
       </c>
       <c r="G4">
-        <v>1.989542951437232</v>
+        <v>3.560419138670807</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>23.2368418237444</v>
+        <v>18.61841796641222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.169796820415627</v>
+        <v>2.850921696415791</v>
       </c>
       <c r="E5">
-        <v>26.82386341189576</v>
+        <v>14.86937712186839</v>
       </c>
       <c r="F5">
-        <v>28.58168610131687</v>
+        <v>21.54856223081966</v>
       </c>
       <c r="G5">
-        <v>1.992247343678894</v>
+        <v>3.561399240755086</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>22.71298257078603</v>
+        <v>18.49473964450639</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,16 +525,16 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2.165812207870674</v>
+        <v>2.850066233152149</v>
       </c>
       <c r="E6">
-        <v>26.71769931539487</v>
+        <v>14.82607902599314</v>
       </c>
       <c r="F6">
-        <v>28.47252089774413</v>
+        <v>21.51781232752258</v>
       </c>
       <c r="G6">
-        <v>1.99269842267273</v>
+        <v>3.56156371561648</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>22.62515391665233</v>
+        <v>18.47422376162875</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,16 +551,16 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>2.193482321616973</v>
+        <v>2.855980118445161</v>
       </c>
       <c r="E7">
-        <v>27.44919817488973</v>
+        <v>15.12448283059674</v>
       </c>
       <c r="F7">
-        <v>29.22424680660484</v>
+        <v>21.73104838485161</v>
       </c>
       <c r="G7">
-        <v>1.989579290728182</v>
+        <v>3.560432240795915</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>23.22983314973492</v>
+        <v>18.61674873665769</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,16 +577,16 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2.316206025784306</v>
+        <v>2.88148468102177</v>
       </c>
       <c r="E8">
-        <v>30.54815235421995</v>
+        <v>16.38650937450282</v>
       </c>
       <c r="F8">
-        <v>32.39507205034553</v>
+        <v>22.66469596995112</v>
       </c>
       <c r="G8">
-        <v>1.976084409734534</v>
+        <v>3.555689875988607</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>25.77788376372132</v>
+        <v>19.24726691713166</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2.562807521672483</v>
+        <v>2.929380739128488</v>
       </c>
       <c r="E9">
-        <v>36.21211963455753</v>
+        <v>18.80736662390714</v>
       </c>
       <c r="F9">
-        <v>38.11286333711383</v>
+        <v>24.44895728506584</v>
       </c>
       <c r="G9">
-        <v>1.950322133379232</v>
+        <v>3.547282679132358</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>30.36699090932274</v>
+        <v>20.47631796316273</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,16 +629,16 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2.752223080665952</v>
+        <v>2.963291022126727</v>
       </c>
       <c r="E10">
-        <v>40.18027455303732</v>
+        <v>20.49547908228555</v>
       </c>
       <c r="F10">
-        <v>42.04084519015983</v>
+        <v>25.71537767688067</v>
       </c>
       <c r="G10">
-        <v>1.93151732477914</v>
+        <v>3.541642386682016</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>33.5187732285959</v>
+        <v>21.36392112697865</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,16 +655,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2.841551368769218</v>
+        <v>2.978442842350294</v>
       </c>
       <c r="E11">
-        <v>41.96009371619361</v>
+        <v>21.22102878584216</v>
       </c>
       <c r="F11">
-        <v>43.77766396158036</v>
+        <v>26.27892897065387</v>
       </c>
       <c r="G11">
-        <v>1.922905058533849</v>
+        <v>3.539191319903616</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>34.91278061644017</v>
+        <v>21.76229304255136</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,16 +681,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2.875980977148883</v>
+        <v>2.984141199597955</v>
       </c>
       <c r="E12">
-        <v>42.63217003938006</v>
+        <v>21.48972210935707</v>
       </c>
       <c r="F12">
-        <v>44.42910347968065</v>
+        <v>26.4903152199851</v>
       </c>
       <c r="G12">
-        <v>1.919626819093134</v>
+        <v>3.538279535533489</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>35.43574939600595</v>
+        <v>21.91221204852719</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,16 +707,16 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>2.868536388806326</v>
+        <v>2.982915702786961</v>
       </c>
       <c r="E13">
-        <v>42.48747916994567</v>
+        <v>21.432122964211</v>
       </c>
       <c r="F13">
-        <v>44.28906556110419</v>
+        <v>26.44488234123341</v>
       </c>
       <c r="G13">
-        <v>1.920333757189832</v>
+        <v>3.538475177899578</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>35.32332264407044</v>
+        <v>21.87996832303203</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,16 +733,16 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>2.844370855340224</v>
+        <v>2.978912436747176</v>
       </c>
       <c r="E14">
-        <v>42.01541264766666</v>
+        <v>21.24325551487781</v>
       </c>
       <c r="F14">
-        <v>43.83137760790596</v>
+        <v>26.29636144028492</v>
       </c>
       <c r="G14">
-        <v>1.922635751368599</v>
+        <v>3.539115979214817</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>34.95589883823123</v>
+        <v>21.77464658914566</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,16 +759,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>2.82965228049711</v>
+        <v>2.976455205107188</v>
       </c>
       <c r="E15">
-        <v>41.72606855470217</v>
+        <v>21.1267811182075</v>
       </c>
       <c r="F15">
-        <v>43.55024687919729</v>
+        <v>26.20511928788498</v>
       </c>
       <c r="G15">
-        <v>1.924043294858122</v>
+        <v>3.539510618405868</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>34.73022805662521</v>
+        <v>21.71000761895233</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,16 +785,16 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2.746460802472048</v>
+        <v>2.962295308117487</v>
       </c>
       <c r="E16">
-        <v>40.06359001551285</v>
+        <v>20.4472131168466</v>
       </c>
       <c r="F16">
-        <v>41.92640926738881</v>
+        <v>25.67827694917969</v>
       </c>
       <c r="G16">
-        <v>1.932078291152922</v>
+        <v>3.541804868354966</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>33.42693701927529</v>
+        <v>21.33776399663437</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,16 +811,16 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>2.696330603022412</v>
+        <v>2.953538534236047</v>
       </c>
       <c r="E17">
-        <v>39.03835436402787</v>
+        <v>20.01949224721978</v>
       </c>
       <c r="F17">
-        <v>40.918034012763</v>
+        <v>25.35170260145048</v>
       </c>
       <c r="G17">
-        <v>1.936987037635435</v>
+        <v>3.543241618569028</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>32.61775505244249</v>
+        <v>21.10790372692032</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,16 +837,16 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>2.667784052953386</v>
+        <v>2.9484760591982</v>
       </c>
       <c r="E18">
-        <v>38.44616033910533</v>
+        <v>19.76948715586671</v>
       </c>
       <c r="F18">
-        <v>40.33326736033554</v>
+        <v>25.16269573567674</v>
       </c>
       <c r="G18">
-        <v>1.939805575858395</v>
+        <v>3.544078805245714</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>32.14853704850325</v>
+        <v>20.97519431035859</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,16 +863,16 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>2.658163996626821</v>
+        <v>2.946757555924873</v>
       </c>
       <c r="E19">
-        <v>38.24517615015715</v>
+        <v>19.68415305554161</v>
       </c>
       <c r="F19">
-        <v>40.1344294221397</v>
+        <v>25.0985072080034</v>
       </c>
       <c r="G19">
-        <v>1.940759289681679</v>
+        <v>3.54436412175732</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>31.98899345666323</v>
+        <v>20.93018037350944</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,16 +889,16 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>2.701636376945593</v>
+        <v>2.954473378242675</v>
       </c>
       <c r="E20">
-        <v>39.14774034632929</v>
+        <v>20.06543668049263</v>
       </c>
       <c r="F20">
-        <v>41.02586533535014</v>
+        <v>25.38658970316628</v>
       </c>
       <c r="G20">
-        <v>1.936465051754428</v>
+        <v>3.543087556526535</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>32.70428157197185</v>
+        <v>21.13242566986918</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,16 +915,16 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>2.851451138798484</v>
+        <v>2.980089358902777</v>
       </c>
       <c r="E21">
-        <v>42.15410590564127</v>
+        <v>21.29889453732572</v>
       </c>
       <c r="F21">
-        <v>43.96597301420533</v>
+        <v>26.34004199921622</v>
       </c>
       <c r="G21">
-        <v>1.921960137631772</v>
+        <v>3.538927316677321</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>35.06394622049999</v>
+        <v>21.80560873600809</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,16 +941,16 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>2.952974241876805</v>
+        <v>2.996601823452128</v>
       </c>
       <c r="E22">
-        <v>44.10895661968484</v>
+        <v>22.0697454502808</v>
       </c>
       <c r="F22">
-        <v>45.85162006124354</v>
+        <v>26.95133001253829</v>
       </c>
       <c r="G22">
-        <v>1.912376127279402</v>
+        <v>3.53630378881938</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>36.57798997088135</v>
+        <v>22.24005346421711</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,16 +967,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>2.898400418239684</v>
+        <v>2.98780972986414</v>
       </c>
       <c r="E23">
-        <v>43.06584919698177</v>
+        <v>21.66154396560658</v>
       </c>
       <c r="F23">
-        <v>44.84813586352315</v>
+        <v>26.62622303281881</v>
       </c>
       <c r="G23">
-        <v>1.917504158225628</v>
+        <v>3.537695321746733</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>35.77218156047815</v>
+        <v>22.00873637834043</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,16 +993,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>2.699236793913117</v>
+        <v>2.954050822766922</v>
       </c>
       <c r="E24">
-        <v>39.09829570508386</v>
+        <v>20.04467798395765</v>
       </c>
       <c r="F24">
-        <v>40.97713055599636</v>
+        <v>25.37082113682241</v>
       </c>
       <c r="G24">
-        <v>1.9367010520476</v>
+        <v>3.543157173143929</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>32.66517547682044</v>
+        <v>21.1213410305704</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,16 +1019,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>2.495039762889499</v>
+        <v>2.91664908718516</v>
       </c>
       <c r="E25">
-        <v>34.71862015935249</v>
+        <v>18.14787061189904</v>
       </c>
       <c r="F25">
-        <v>36.61664450726832</v>
+        <v>23.97300802016278</v>
       </c>
       <c r="G25">
-        <v>1.957245082470886</v>
+        <v>3.549462285454343</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>29.16646652915066</v>
+        <v>20.14578213644704</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_129/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_1_129/res_line/loading_percent.xlsx
@@ -421,16 +421,16 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>2.888251324518907</v>
+        <v>2.349720135345092</v>
       </c>
       <c r="E2">
-        <v>16.71456242210409</v>
+        <v>31.35800337974209</v>
       </c>
       <c r="F2">
-        <v>22.91516405752202</v>
+        <v>33.21936882378018</v>
       </c>
       <c r="G2">
-        <v>3.554465621914876</v>
+        <v>1.972485176699833</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,7 +439,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>19.41803292077184</v>
+        <v>26.43978069555541</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -447,16 +447,16 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>2.868465467081504</v>
+        <v>2.252862348009495</v>
       </c>
       <c r="E3">
-        <v>15.74734985263153</v>
+        <v>28.97648187263925</v>
       </c>
       <c r="F3">
-        <v>22.18566614097683</v>
+        <v>30.78999478642798</v>
       </c>
       <c r="G3">
-        <v>3.558084161067147</v>
+        <v>1.982984461186607</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -465,7 +465,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>18.9225144024005</v>
+        <v>24.48849958122704</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -473,16 +473,16 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>2.856048993626708</v>
+        <v>2.193806291917495</v>
       </c>
       <c r="E4">
-        <v>15.12794543687679</v>
+        <v>27.45768493464443</v>
       </c>
       <c r="F4">
-        <v>21.73354054194758</v>
+        <v>29.2329618408612</v>
       </c>
       <c r="G4">
-        <v>3.560419138670807</v>
+        <v>1.9895429514371</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -491,7 +491,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>18.61841796641222</v>
+        <v>23.23684182374441</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -499,16 +499,16 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2.850921696415791</v>
+        <v>2.169796820415629</v>
       </c>
       <c r="E5">
-        <v>14.86937712186839</v>
+        <v>26.82386341189581</v>
       </c>
       <c r="F5">
-        <v>21.54856223081966</v>
+        <v>28.58168610131683</v>
       </c>
       <c r="G5">
-        <v>3.561399240755086</v>
+        <v>1.992247343678895</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -517,7 +517,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>18.49473964450639</v>
+        <v>22.71298257078601</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -525,16 +525,16 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>2.850066233152149</v>
+        <v>2.165812207870548</v>
       </c>
       <c r="E6">
-        <v>14.82607902599314</v>
+        <v>26.71769931539484</v>
       </c>
       <c r="F6">
-        <v>21.51781232752258</v>
+        <v>28.47252089774414</v>
       </c>
       <c r="G6">
-        <v>3.56156371561648</v>
+        <v>1.992698422672597</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -543,7 +543,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>18.47422376162875</v>
+        <v>22.62515391665233</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -551,16 +551,16 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>2.855980118445161</v>
+        <v>2.193482321617039</v>
       </c>
       <c r="E7">
-        <v>15.12448283059674</v>
+        <v>27.44919817488973</v>
       </c>
       <c r="F7">
-        <v>21.73104838485161</v>
+        <v>29.2242468066048</v>
       </c>
       <c r="G7">
-        <v>3.560432240795915</v>
+        <v>1.989579290728184</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -569,7 +569,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>18.61674873665769</v>
+        <v>23.22983314973489</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -577,16 +577,16 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>2.88148468102177</v>
+        <v>2.316206025784049</v>
       </c>
       <c r="E8">
-        <v>16.38650937450282</v>
+        <v>30.54815235421993</v>
       </c>
       <c r="F8">
-        <v>22.66469596995112</v>
+        <v>32.39507205034562</v>
       </c>
       <c r="G8">
-        <v>3.555689875988607</v>
+        <v>1.976084409734668</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -595,7 +595,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>19.24726691713166</v>
+        <v>25.77788376372136</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -603,16 +603,16 @@
         <v>7</v>
       </c>
       <c r="D9">
-        <v>2.929380739128488</v>
+        <v>2.562807521672476</v>
       </c>
       <c r="E9">
-        <v>18.80736662390714</v>
+        <v>36.21211963455755</v>
       </c>
       <c r="F9">
-        <v>24.44895728506584</v>
+        <v>38.11286333711386</v>
       </c>
       <c r="G9">
-        <v>3.547282679132358</v>
+        <v>1.950322133379367</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -621,7 +621,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>20.47631796316273</v>
+        <v>30.36699090932277</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -629,16 +629,16 @@
         <v>8</v>
       </c>
       <c r="D10">
-        <v>2.963291022126727</v>
+        <v>2.752223080665883</v>
       </c>
       <c r="E10">
-        <v>20.49547908228555</v>
+        <v>40.18027455303723</v>
       </c>
       <c r="F10">
-        <v>25.71537767688067</v>
+        <v>42.04084519015975</v>
       </c>
       <c r="G10">
-        <v>3.541642386682016</v>
+        <v>1.931517324779137</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -647,7 +647,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>21.36392112697865</v>
+        <v>33.51877322859582</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -655,16 +655,16 @@
         <v>9</v>
       </c>
       <c r="D11">
-        <v>2.978442842350294</v>
+        <v>2.841551368769099</v>
       </c>
       <c r="E11">
-        <v>21.22102878584216</v>
+        <v>41.96009371619354</v>
       </c>
       <c r="F11">
-        <v>26.27892897065387</v>
+        <v>43.77766396158036</v>
       </c>
       <c r="G11">
-        <v>3.539191319903616</v>
+        <v>1.922905058533718</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -673,7 +673,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>21.76229304255136</v>
+        <v>34.91278061644016</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -681,16 +681,16 @@
         <v>10</v>
       </c>
       <c r="D12">
-        <v>2.984141199597955</v>
+        <v>2.875980977148759</v>
       </c>
       <c r="E12">
-        <v>21.48972210935707</v>
+        <v>42.63217003937997</v>
       </c>
       <c r="F12">
-        <v>26.4903152199851</v>
+        <v>44.42910347968066</v>
       </c>
       <c r="G12">
-        <v>3.538279535533489</v>
+        <v>1.919626819093003</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>21.91221204852719</v>
+        <v>35.43574939600597</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -707,16 +707,16 @@
         <v>11</v>
       </c>
       <c r="D13">
-        <v>2.982915702786961</v>
+        <v>2.868536388806389</v>
       </c>
       <c r="E13">
-        <v>21.432122964211</v>
+        <v>42.48747916994571</v>
       </c>
       <c r="F13">
-        <v>26.44488234123341</v>
+        <v>44.28906556110423</v>
       </c>
       <c r="G13">
-        <v>3.538475177899578</v>
+        <v>1.92033375718983</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -725,7 +725,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>21.87996832303203</v>
+        <v>35.32332264407049</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -733,16 +733,16 @@
         <v>12</v>
       </c>
       <c r="D14">
-        <v>2.978912436747176</v>
+        <v>2.844370855340101</v>
       </c>
       <c r="E14">
-        <v>21.24325551487781</v>
+        <v>42.01541264766671</v>
       </c>
       <c r="F14">
-        <v>26.29636144028492</v>
+        <v>43.83137760790603</v>
       </c>
       <c r="G14">
-        <v>3.539115979214817</v>
+        <v>1.922635751368603</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -751,7 +751,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>21.77464658914566</v>
+        <v>34.95589883823128</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -759,16 +759,16 @@
         <v>13</v>
       </c>
       <c r="D15">
-        <v>2.976455205107188</v>
+        <v>2.829652280497055</v>
       </c>
       <c r="E15">
-        <v>21.1267811182075</v>
+        <v>41.7260685547022</v>
       </c>
       <c r="F15">
-        <v>26.20511928788498</v>
+        <v>43.5502468791974</v>
       </c>
       <c r="G15">
-        <v>3.539510618405868</v>
+        <v>1.924043294857992</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>21.71000761895233</v>
+        <v>34.73022805662531</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -785,16 +785,16 @@
         <v>14</v>
       </c>
       <c r="D16">
-        <v>2.962295308117487</v>
+        <v>2.746460802472048</v>
       </c>
       <c r="E16">
-        <v>20.4472131168466</v>
+        <v>40.06359001551285</v>
       </c>
       <c r="F16">
-        <v>25.67827694917969</v>
+        <v>41.92640926738881</v>
       </c>
       <c r="G16">
-        <v>3.541804868354966</v>
+        <v>1.932078291152918</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -803,7 +803,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>21.33776399663437</v>
+        <v>33.42693701927529</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -811,16 +811,16 @@
         <v>15</v>
       </c>
       <c r="D17">
-        <v>2.953538534236047</v>
+        <v>2.696330603022415</v>
       </c>
       <c r="E17">
-        <v>20.01949224721978</v>
+        <v>39.03835436402784</v>
       </c>
       <c r="F17">
-        <v>25.35170260145048</v>
+        <v>40.91803401276306</v>
       </c>
       <c r="G17">
-        <v>3.543241618569028</v>
+        <v>1.936987037635699</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>21.10790372692032</v>
+        <v>32.61775505244254</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -837,16 +837,16 @@
         <v>16</v>
       </c>
       <c r="D18">
-        <v>2.9484760591982</v>
+        <v>2.667784052953446</v>
       </c>
       <c r="E18">
-        <v>19.76948715586671</v>
+        <v>38.44616033910527</v>
       </c>
       <c r="F18">
-        <v>25.16269573567674</v>
+        <v>40.33326736033548</v>
       </c>
       <c r="G18">
-        <v>3.544078805245714</v>
+        <v>1.939805575858262</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -855,7 +855,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>20.97519431035859</v>
+        <v>32.14853704850322</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -863,16 +863,16 @@
         <v>17</v>
       </c>
       <c r="D19">
-        <v>2.946757555924873</v>
+        <v>2.65816399662681</v>
       </c>
       <c r="E19">
-        <v>19.68415305554161</v>
+        <v>38.24517615015719</v>
       </c>
       <c r="F19">
-        <v>25.0985072080034</v>
+        <v>40.13442942213967</v>
       </c>
       <c r="G19">
-        <v>3.54436412175732</v>
+        <v>1.940759289681545</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>20.93018037350944</v>
+        <v>31.98899345666321</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -889,16 +889,16 @@
         <v>18</v>
       </c>
       <c r="D20">
-        <v>2.954473378242675</v>
+        <v>2.701636376945457</v>
       </c>
       <c r="E20">
-        <v>20.06543668049263</v>
+        <v>39.14774034632932</v>
       </c>
       <c r="F20">
-        <v>25.38658970316628</v>
+        <v>41.02586533535019</v>
       </c>
       <c r="G20">
-        <v>3.543087556526535</v>
+        <v>1.936465051754432</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>21.13242566986918</v>
+        <v>32.70428157197187</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -915,16 +915,16 @@
         <v>19</v>
       </c>
       <c r="D21">
-        <v>2.980089358902777</v>
+        <v>2.851451138798347</v>
       </c>
       <c r="E21">
-        <v>21.29889453732572</v>
+        <v>42.15410590564126</v>
       </c>
       <c r="F21">
-        <v>26.34004199921622</v>
+        <v>43.96597301420537</v>
       </c>
       <c r="G21">
-        <v>3.538927316677321</v>
+        <v>1.921960137631775</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>21.80560873600809</v>
+        <v>35.06394622050002</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -941,16 +941,16 @@
         <v>20</v>
       </c>
       <c r="D22">
-        <v>2.996601823452128</v>
+        <v>2.952974241876813</v>
       </c>
       <c r="E22">
-        <v>22.0697454502808</v>
+        <v>44.1089566196849</v>
       </c>
       <c r="F22">
-        <v>26.95133001253829</v>
+        <v>45.85162006124357</v>
       </c>
       <c r="G22">
-        <v>3.53630378881938</v>
+        <v>1.91237612727953</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -959,7 +959,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>22.24005346421711</v>
+        <v>36.57798997088138</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -967,16 +967,16 @@
         <v>21</v>
       </c>
       <c r="D23">
-        <v>2.98780972986414</v>
+        <v>2.898400418239618</v>
       </c>
       <c r="E23">
-        <v>21.66154396560658</v>
+        <v>43.0658491969818</v>
       </c>
       <c r="F23">
-        <v>26.62622303281881</v>
+        <v>44.84813586352318</v>
       </c>
       <c r="G23">
-        <v>3.537695321746733</v>
+        <v>1.917504158225754</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>22.00873637834043</v>
+        <v>35.77218156047816</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -993,16 +993,16 @@
         <v>22</v>
       </c>
       <c r="D24">
-        <v>2.954050822766922</v>
+        <v>2.699236793912984</v>
       </c>
       <c r="E24">
-        <v>20.04467798395765</v>
+        <v>39.09829570508385</v>
       </c>
       <c r="F24">
-        <v>25.37082113682241</v>
+        <v>40.97713055599642</v>
       </c>
       <c r="G24">
-        <v>3.543157173143929</v>
+        <v>1.936701052047868</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1011,7 +1011,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>21.1213410305704</v>
+        <v>32.66517547682048</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1019,16 +1019,16 @@
         <v>23</v>
       </c>
       <c r="D25">
-        <v>2.91664908718516</v>
+        <v>2.495039762889433</v>
       </c>
       <c r="E25">
-        <v>18.14787061189904</v>
+        <v>34.71862015935246</v>
       </c>
       <c r="F25">
-        <v>23.97300802016278</v>
+        <v>36.61664450726829</v>
       </c>
       <c r="G25">
-        <v>3.549462285454343</v>
+        <v>1.95724508247115</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>20.14578213644704</v>
+        <v>29.16646652915064</v>
       </c>
     </row>
   </sheetData>
